--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243021.63290784</v>
+        <v>1196239.025271217</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396494</v>
+        <v>625948.6630396493</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7817379.804902514</v>
+        <v>7817379.804902518</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8809515.633374522</v>
+        <v>8809515.633374523</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.63385918008079</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>237.7833412588721</v>
       </c>
       <c r="V5" t="n">
-        <v>241.7627700121621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>174.0436115467088</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>316.5789886999465</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.5650190213105</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>36.25939569967835</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>135.8442372525923</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.05665370612868</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>14.79812512905624</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>192.4259446411146</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>65.05884990877765</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>102.5029629503586</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.5821528722197</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>53.55762244236397</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.61636946832651</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>3.917994307568652</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S26" t="n">
-        <v>102.9113586442634</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.7162804660433</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.0525194866071</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>69.30534830703724</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>186.3006245547072</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>239.3442318373562</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>81.75945942673124</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>321.400239373144</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.4857020429025</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>52.37844821257649</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>81.95766043979344</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>325.6304449912899</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826978</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.828185147818</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053132</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>103.7834335154898</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.74007385922077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01006717676063</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>27.10510553295292</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>123.0177747814609</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053132</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>53.55762244236374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>19.17464973279774</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>263.2772089660886</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>123.0177747814604</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053132</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>53.55762244236376</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>219.7977074307632</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>107.9464172067538</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>147.6687976612679</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.00602137678736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1338.355738489329</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C2" t="n">
-        <v>1338.355738489329</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D2" t="n">
-        <v>1338.355738489329</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2691.458324169655</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2515.280836483826</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2296.646169455888</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2042.88438409398</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1711.821496750409</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1711.821496750409</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.355738489329</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.355738489329</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2183.300541329998</v>
       </c>
       <c r="V5" t="n">
-        <v>1749.341643278937</v>
+        <v>1852.237653986428</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.341643278937</v>
+        <v>1499.468998716314</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>1126.003240455234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="6">
@@ -4649,31 +4649,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>952.5674858910851</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C8" t="n">
-        <v>952.5674858910851</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5674858910851</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1342.706817866897</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1342.706817866897</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y8" t="n">
-        <v>952.5674858910851</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4901,13 +4901,13 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036444</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406938</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.978248184794</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1994.915360841223</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5290,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2118.304160219349</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C17" t="n">
-        <v>1749.341643278937</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2504.904000283471</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2504.904000283471</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2504.904000283471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2504.904000283471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>2504.904000283471</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y17" t="n">
-        <v>2504.904000283471</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>325.2978374347316</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.5052582912015</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2284.144782938654</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1150.836072463478</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.015910972395</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>2631.433081009356</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U22" t="n">
-        <v>2631.433081009356</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>2631.433081009356</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>2342.015910972395</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2342.015910972395</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2342.015910972395</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1526.078356900978</v>
+        <v>1157.715234801667</v>
       </c>
       <c r="C23" t="n">
-        <v>1157.115839960566</v>
+        <v>1157.715234801667</v>
       </c>
       <c r="D23" t="n">
-        <v>798.8501413538158</v>
+        <v>799.4495361949166</v>
       </c>
       <c r="E23" t="n">
-        <v>413.0618887555716</v>
+        <v>799.4495361949166</v>
       </c>
       <c r="F23" t="n">
-        <v>413.0618887555716</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G23" t="n">
-        <v>413.0618887555716</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H23" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J23" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q23" t="n">
         <v>3360.114829815676</v>
       </c>
       <c r="R23" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T23" t="n">
-        <v>3360.114829815676</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="U23" t="n">
-        <v>3360.114829815676</v>
+        <v>2708.690214066747</v>
       </c>
       <c r="V23" t="n">
-        <v>3029.051942472106</v>
+        <v>2377.627326723176</v>
       </c>
       <c r="W23" t="n">
-        <v>2676.283287201991</v>
+        <v>2024.858671453062</v>
       </c>
       <c r="X23" t="n">
-        <v>2302.817528940911</v>
+        <v>1651.392913191982</v>
       </c>
       <c r="Y23" t="n">
-        <v>1912.6781969651</v>
+        <v>1261.253581216171</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H24" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K24" t="n">
         <v>371.5093956067678</v>
@@ -6080,13 +6080,13 @@
         <v>1443.219445828731</v>
       </c>
       <c r="N24" t="n">
-        <v>2075.963713122682</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O24" t="n">
-        <v>2198.461726735106</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P24" t="n">
-        <v>2592.722256984984</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>475.8409835218428</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="C25" t="n">
-        <v>475.8409835218428</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="D25" t="n">
-        <v>475.8409835218428</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="E25" t="n">
-        <v>475.8409835218428</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="F25" t="n">
-        <v>475.8409835218428</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G25" t="n">
-        <v>307.1010648485022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H25" t="n">
-        <v>151.6632758572494</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I25" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J25" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K25" t="n">
         <v>153.0971541490671</v>
@@ -6168,31 +6168,31 @@
         <v>954.5619983528702</v>
       </c>
       <c r="Q25" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R25" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S25" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T25" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U25" t="n">
-        <v>946.9066183890432</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V25" t="n">
-        <v>946.9066183890432</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W25" t="n">
-        <v>657.4894483520825</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="X25" t="n">
-        <v>657.4894483520825</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="Y25" t="n">
-        <v>657.4894483520825</v>
+        <v>121.3009051239539</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1168.412053135328</v>
+        <v>2012.546686219572</v>
       </c>
       <c r="C26" t="n">
-        <v>799.4495361949166</v>
+        <v>1643.584169279161</v>
       </c>
       <c r="D26" t="n">
-        <v>799.4495361949166</v>
+        <v>1285.31847067241</v>
       </c>
       <c r="E26" t="n">
-        <v>799.4495361949166</v>
+        <v>899.530218074166</v>
       </c>
       <c r="F26" t="n">
-        <v>388.4636314053091</v>
+        <v>488.5443132845584</v>
       </c>
       <c r="G26" t="n">
-        <v>388.4636314053091</v>
+        <v>71.15986660395862</v>
       </c>
       <c r="H26" t="n">
         <v>67.20229659631352</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R26" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S26" t="n">
-        <v>3256.163962498238</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3256.163962498238</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="U26" t="n">
-        <v>3002.448526050027</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="V26" t="n">
-        <v>2671.385638706456</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="W26" t="n">
-        <v>2318.616983436342</v>
+        <v>2772.612284544774</v>
       </c>
       <c r="X26" t="n">
-        <v>1945.151225175262</v>
+        <v>2399.146526283694</v>
       </c>
       <c r="Y26" t="n">
-        <v>1555.01189319945</v>
+        <v>2399.146526283694</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>371.4209961046996</v>
+        <v>322.715290892789</v>
       </c>
       <c r="L27" t="n">
-        <v>842.0038408395859</v>
+        <v>793.2981356276754</v>
       </c>
       <c r="M27" t="n">
-        <v>1443.131046326663</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N27" t="n">
-        <v>2075.875313620614</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O27" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.7980786902002</v>
+        <v>702.9081311922898</v>
       </c>
       <c r="C28" t="n">
-        <v>680.8618957622933</v>
+        <v>533.9719482643829</v>
       </c>
       <c r="D28" t="n">
-        <v>530.7452563499576</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="E28" t="n">
-        <v>382.8321627675644</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F28" t="n">
         <v>235.942215269654</v>
@@ -6429,7 +6429,7 @@
         <v>954.5619983528702</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.5619983528702</v>
+        <v>884.5565960225296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2008.589116211927</v>
+        <v>1838.505866650336</v>
       </c>
       <c r="C29" t="n">
-        <v>1639.626599271516</v>
+        <v>1469.543349709924</v>
       </c>
       <c r="D29" t="n">
         <v>1281.360900664765</v>
@@ -6463,10 +6463,10 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L29" t="n">
         <v>1104.574328908085</v>
@@ -6475,40 +6475,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775583</v>
       </c>
       <c r="Q29" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U29" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V29" t="n">
-        <v>3010.416564877893</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="W29" t="n">
-        <v>3010.416564877893</v>
+        <v>2988.710796951349</v>
       </c>
       <c r="X29" t="n">
-        <v>2636.950806616813</v>
+        <v>2615.245038690269</v>
       </c>
       <c r="Y29" t="n">
-        <v>2395.188956276049</v>
+        <v>2225.105706714457</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K30" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L30" t="n">
-        <v>526.7256998860481</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.852905373125</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.597172667076</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.018882363463</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P30" t="n">
-        <v>2667.279412613341</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="C31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="D31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="E31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="F31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M31" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N31" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O31" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T31" t="n">
-        <v>3360.114829815676</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="U31" t="n">
-        <v>3070.955394829607</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="V31" t="n">
-        <v>2816.27090662372</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="W31" t="n">
-        <v>2526.85373658676</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="X31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="Y31" t="n">
-        <v>2472.755128059119</v>
+        <v>149.7876091485673</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2139.719261025509</v>
+        <v>1554.200305733573</v>
       </c>
       <c r="C32" t="n">
-        <v>1770.756744085097</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="D32" t="n">
-        <v>1412.491045478347</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="E32" t="n">
-        <v>1026.702792880102</v>
+        <v>799.4495361949166</v>
       </c>
       <c r="F32" t="n">
-        <v>615.7168880904949</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908085</v>
@@ -6712,7 +6712,7 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O32" t="n">
         <v>2758.834606696547</v>
@@ -6736,16 +6736,16 @@
         <v>3360.114829815676</v>
       </c>
       <c r="V32" t="n">
-        <v>3360.114829815676</v>
+        <v>3029.051942472105</v>
       </c>
       <c r="W32" t="n">
-        <v>3007.346174545562</v>
+        <v>2704.405236034586</v>
       </c>
       <c r="X32" t="n">
-        <v>2633.880416284482</v>
+        <v>2330.939477773506</v>
       </c>
       <c r="Y32" t="n">
-        <v>2526.319101089631</v>
+        <v>1940.800145797694</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K33" t="n">
-        <v>109.688810964315</v>
+        <v>322.715290892789</v>
       </c>
       <c r="L33" t="n">
-        <v>526.7256998860481</v>
+        <v>793.2981356276754</v>
       </c>
       <c r="M33" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O33" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P33" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3139.322250672146</v>
+        <v>318.9239951199714</v>
       </c>
       <c r="C34" t="n">
-        <v>3086.414727225099</v>
+        <v>149.9878121920645</v>
       </c>
       <c r="D34" t="n">
-        <v>2936.298087812763</v>
+        <v>149.9878121920645</v>
       </c>
       <c r="E34" t="n">
-        <v>2788.38499423037</v>
+        <v>149.9878121920645</v>
       </c>
       <c r="F34" t="n">
-        <v>2641.49504673246</v>
+        <v>149.9878121920645</v>
       </c>
       <c r="G34" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H34" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I34" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J34" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K34" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L34" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M34" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N34" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O34" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P34" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q34" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>3360.114829815676</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S34" t="n">
-        <v>3360.114829815676</v>
+        <v>608.341165156932</v>
       </c>
       <c r="T34" t="n">
-        <v>3360.114829815676</v>
+        <v>608.341165156932</v>
       </c>
       <c r="U34" t="n">
-        <v>3360.114829815676</v>
+        <v>608.341165156932</v>
       </c>
       <c r="V34" t="n">
-        <v>3360.114829815676</v>
+        <v>608.341165156932</v>
       </c>
       <c r="W34" t="n">
-        <v>3360.114829815676</v>
+        <v>318.9239951199714</v>
       </c>
       <c r="X34" t="n">
-        <v>3360.114829815676</v>
+        <v>318.9239951199714</v>
       </c>
       <c r="Y34" t="n">
-        <v>3139.322250672146</v>
+        <v>318.9239951199714</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1128.36917760026</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C35" t="n">
-        <v>1128.36917760026</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D35" t="n">
-        <v>1128.36917760026</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E35" t="n">
-        <v>1128.36917760026</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F35" t="n">
-        <v>717.3832728106524</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G35" t="n">
-        <v>388.4636314053091</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H35" t="n">
         <v>67.20229659631352</v>
@@ -6937,52 +6937,52 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J35" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K35" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N35" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P35" t="n">
         <v>3146.337816775583</v>
       </c>
       <c r="Q35" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R35" t="n">
-        <v>3341.479452221464</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S35" t="n">
-        <v>3178.504162921534</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T35" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U35" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V35" t="n">
-        <v>2631.342763171388</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="W35" t="n">
-        <v>2278.574107901273</v>
+        <v>2741.409599832341</v>
       </c>
       <c r="X35" t="n">
-        <v>1905.108349640193</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y35" t="n">
-        <v>1514.969017664382</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H36" t="n">
         <v>118.5721901641821</v>
@@ -7019,22 +7019,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K36" t="n">
-        <v>371.5093956067678</v>
+        <v>322.7152908927893</v>
       </c>
       <c r="L36" t="n">
-        <v>842.0922403416541</v>
+        <v>793.2981356276756</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>2075.875313620614</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O36" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3105.430341609789</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="C37" t="n">
-        <v>3105.430341609789</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="D37" t="n">
-        <v>3105.430341609789</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="E37" t="n">
-        <v>2957.517248027396</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F37" t="n">
-        <v>2952.729294634244</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G37" t="n">
-        <v>2783.989375960903</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H37" t="n">
-        <v>2628.55158696965</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I37" t="n">
-        <v>2500.038024197261</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K37" t="n">
-        <v>2558.649985611873</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L37" t="n">
-        <v>2724.092265317944</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M37" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N37" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O37" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R37" t="n">
-        <v>3360.114829815676</v>
+        <v>818.1005610221964</v>
       </c>
       <c r="S37" t="n">
-        <v>3360.114829815676</v>
+        <v>608.3411651569318</v>
       </c>
       <c r="T37" t="n">
-        <v>3360.114829815676</v>
+        <v>608.3411651569318</v>
       </c>
       <c r="U37" t="n">
-        <v>3360.114829815676</v>
+        <v>608.3411651569318</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.430341609789</v>
+        <v>608.3411651569318</v>
       </c>
       <c r="W37" t="n">
-        <v>3105.430341609789</v>
+        <v>318.9239951199712</v>
       </c>
       <c r="X37" t="n">
-        <v>3105.430341609789</v>
+        <v>318.9239951199712</v>
       </c>
       <c r="Y37" t="n">
-        <v>3105.430341609789</v>
+        <v>318.9239951199712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2008.589116211927</v>
+        <v>1650.323417605177</v>
       </c>
       <c r="C38" t="n">
-        <v>1639.626599271516</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D38" t="n">
         <v>1281.360900664765</v>
@@ -7174,13 +7174,13 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M38" t="n">
         <v>1685.237002375317</v>
@@ -7189,37 +7189,37 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O38" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P38" t="n">
         <v>3146.337816775583</v>
       </c>
       <c r="Q38" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T38" t="n">
-        <v>3332.735935337946</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="U38" t="n">
-        <v>3079.020498889734</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="V38" t="n">
-        <v>2747.957611546164</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="W38" t="n">
-        <v>2395.188956276049</v>
+        <v>2800.52834790619</v>
       </c>
       <c r="X38" t="n">
-        <v>2395.188956276049</v>
+        <v>2427.06258964511</v>
       </c>
       <c r="Y38" t="n">
-        <v>2395.188956276049</v>
+        <v>2036.923257669299</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G39" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H39" t="n">
         <v>118.5721901641821</v>
@@ -7256,22 +7256,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K39" t="n">
-        <v>371.5093956067678</v>
+        <v>322.7152908927893</v>
       </c>
       <c r="L39" t="n">
-        <v>842.0922403416541</v>
+        <v>793.2981356276756</v>
       </c>
       <c r="M39" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N39" t="n">
-        <v>2075.963713122682</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O39" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>255.5068125876525</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C40" t="n">
-        <v>86.57062965974558</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D40" t="n">
         <v>67.20229659631352</v>
@@ -7335,49 +7335,49 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K40" t="n">
-        <v>153.0971541490671</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L40" t="n">
-        <v>318.5394338551381</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N40" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O40" t="n">
-        <v>844.8887934645957</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T40" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U40" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V40" t="n">
-        <v>954.5619983528702</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W40" t="n">
-        <v>665.1448283159095</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X40" t="n">
-        <v>437.1552774178922</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.1552774178922</v>
+        <v>121.3009051239537</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1857.141244244548</v>
+        <v>1650.323417605177</v>
       </c>
       <c r="C41" t="n">
-        <v>1488.178727304137</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D41" t="n">
-        <v>1129.913028697386</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E41" t="n">
-        <v>744.1247760991419</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F41" t="n">
-        <v>333.1388713095343</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726748</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908085</v>
@@ -7423,40 +7423,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N41" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O41" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775582</v>
       </c>
       <c r="Q41" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S41" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T41" t="n">
-        <v>3360.114829815676</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="U41" t="n">
-        <v>3360.114829815676</v>
+        <v>2924.788726473322</v>
       </c>
       <c r="V41" t="n">
-        <v>3360.114829815676</v>
+        <v>2800.52834790619</v>
       </c>
       <c r="W41" t="n">
-        <v>3007.346174545562</v>
+        <v>2800.52834790619</v>
       </c>
       <c r="X41" t="n">
-        <v>2633.880416284482</v>
+        <v>2427.06258964511</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.74108430867</v>
+        <v>2036.923257669298</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K42" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L42" t="n">
-        <v>580.2716556992013</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.564838176616</v>
+        <v>2113.83647221895</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J43" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K43" t="n">
-        <v>153.0971541490671</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L43" t="n">
-        <v>318.5394338551381</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N43" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O43" t="n">
-        <v>844.8887934645957</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S43" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T43" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U43" t="n">
-        <v>611.303954839161</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V43" t="n">
-        <v>356.6194666332741</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W43" t="n">
-        <v>67.20229659631352</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X43" t="n">
-        <v>67.20229659631352</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.20229659631352</v>
+        <v>121.3009051239537</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2230.607002505627</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="C44" t="n">
-        <v>1861.644485565216</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D44" t="n">
-        <v>1503.378786958465</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
-        <v>1117.590534360221</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F44" t="n">
-        <v>706.6046295706135</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G44" t="n">
-        <v>289.2201828900137</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726751</v>
+        <v>597.645382172675</v>
       </c>
       <c r="L44" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M44" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O44" t="n">
         <v>2758.834606696547</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775582</v>
       </c>
       <c r="Q44" t="n">
         <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T44" t="n">
-        <v>3360.114829815675</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U44" t="n">
-        <v>3360.114829815675</v>
+        <v>2871.665503366676</v>
       </c>
       <c r="V44" t="n">
-        <v>3360.114829815675</v>
+        <v>2540.602616023105</v>
       </c>
       <c r="W44" t="n">
-        <v>3007.346174545561</v>
+        <v>2431.565830965778</v>
       </c>
       <c r="X44" t="n">
-        <v>3007.346174545561</v>
+        <v>2058.100072704699</v>
       </c>
       <c r="Y44" t="n">
-        <v>2617.206842569749</v>
+        <v>1667.960740728887</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H45" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K45" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L45" t="n">
-        <v>580.2716556992012</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M45" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O45" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P45" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.4662160133836</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C46" t="n">
-        <v>369.5300330854767</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D46" t="n">
-        <v>369.5300330854767</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E46" t="n">
-        <v>369.5300330854767</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F46" t="n">
-        <v>222.6400855875663</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G46" t="n">
-        <v>222.6400855875663</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K46" t="n">
         <v>153.097154149067</v>
@@ -7830,28 +7830,28 @@
         <v>954.56199835287</v>
       </c>
       <c r="R46" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T46" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>818.1005610221964</v>
+        <v>954.56199835287</v>
       </c>
       <c r="V46" t="n">
-        <v>818.1005610221964</v>
+        <v>805.4015966748216</v>
       </c>
       <c r="W46" t="n">
-        <v>818.1005610221964</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="X46" t="n">
-        <v>818.1005610221964</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.1146808436233</v>
+        <v>67.2022965963135</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.31025821046119</v>
+        <v>160.790313277285</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K27" t="n">
-        <v>264.375944586247</v>
+        <v>215.1782625540142</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7535212497691</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>160.790313277285</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>21.07971842713414</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>215.1782625540142</v>
       </c>
       <c r="L33" t="n">
-        <v>316.7535212497691</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.07971842713414</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540145</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.2530819172221</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.07971842713414</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540145</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.7730268503983</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713414</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>160.790313277285</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>21.07971842713417</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181654</v>
       </c>
       <c r="P45" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>247.8863064963022</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.84454339473092</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22764,13 +22764,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>13.44082624941717</v>
       </c>
       <c r="V5" t="n">
-        <v>85.98948845797281</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>208.6902301167718</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>32.66198001746653</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>112.6591484869788</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>291.4928627704566</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343778</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>80.60408310506554</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>317.8920634466519</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>95.36439431680256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>201.7061255516594</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>367.9357165344243</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,13 +24019,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>58.79822286717473</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,19 +24177,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>159.9762555493066</v>
+        <v>21.87414536972193</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>280.230878713122</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>105.466568588686</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>91.86342558056728</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
-        <v>43.6120576763383</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
         <v>27.01006717676063</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24420,10 +24420,10 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.130727153337</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654458</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.43417776266726</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.11569971589401</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2793050450576</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>168.3824170659757</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>146.8937068186974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>63.6615885962</v>
       </c>
       <c r="G31" t="n">
         <v>167.0525194866071</v>
@@ -24891,19 +24891,19 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>172.1520329466732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>27.84072934426899</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.7522366131511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>114.8683728860513</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>85.09485904681367</v>
       </c>
       <c r="H34" t="n">
         <v>153.8834111013403</v>
@@ -25122,10 +25122,10 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>223.9358063394608</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>87.58015722250389</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
         <v>129.8188433654458</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>82.92407332231693</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>76.04854666644749</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>140.6809741637105</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.9358063394608</v>
@@ -25371,10 +25371,10 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>186.8324217495569</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>226.2231939359522</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.2743577395736</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>129.4408232854146</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676063</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R40" t="n">
         <v>135.0968229573668</v>
@@ -25605,16 +25605,16 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>149.9333932477052</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>318.0487214609057</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>204.7344836886745</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>126.2743577395735</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25809,7 +25809,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01006717676063</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>154.104179464248</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>98.2510140301425</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
         <v>129.8188433654458</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.2945515106592</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I46" t="n">
         <v>127.2284271446648</v>
@@ -26070,7 +26070,7 @@
         <v>7.578826164188825</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
         <v>207.661801906612</v>
@@ -26082,16 +26082,16 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>104.4688456625601</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.5786319753074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092099</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>803770.5991833628</v>
+        <v>803770.5991833627</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803770.5991833628</v>
+        <v>803770.5991833626</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803770.5991833626</v>
+        <v>803770.5991833624</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803770.5991833627</v>
+        <v>803770.5991833624</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803770.5991833626</v>
+        <v>803770.5991833624</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="D2" t="n">
-        <v>303610.2405165455</v>
-      </c>
       <c r="E2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165454</v>
@@ -26331,13 +26331,13 @@
         <v>303610.2405165455</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="J2" t="n">
-        <v>337347.8118794858</v>
+        <v>337347.8118794859</v>
       </c>
       <c r="K2" t="n">
         <v>337347.8118794857</v>
@@ -26352,10 +26352,10 @@
         <v>337347.8118794857</v>
       </c>
       <c r="O2" t="n">
-        <v>337347.8118794858</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="P2" t="n">
-        <v>337347.8118794858</v>
+        <v>337347.8118794857</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033439</v>
+        <v>151472.5856033438</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854676</v>
       </c>
       <c r="J5" t="n">
         <v>62418.87211854676</v>
@@ -26502,16 +26502,16 @@
         <v>62418.87211854676</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="N5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854674</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854675</v>
+        <v>62418.87211854674</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387445.6443310716</v>
+        <v>-393514.0580768909</v>
       </c>
       <c r="C6" t="n">
-        <v>202522.2348834726</v>
+        <v>196453.8211376538</v>
       </c>
       <c r="D6" t="n">
-        <v>202522.2348834728</v>
+        <v>196453.8211376535</v>
       </c>
       <c r="E6" t="n">
-        <v>236149.8348834726</v>
+        <v>230081.4211376537</v>
       </c>
       <c r="F6" t="n">
-        <v>236149.8348834726</v>
+        <v>230081.4211376534</v>
       </c>
       <c r="G6" t="n">
-        <v>236149.8348834728</v>
+        <v>230081.4211376536</v>
       </c>
       <c r="H6" t="n">
-        <v>236149.8348834726</v>
+        <v>230081.4211376534</v>
       </c>
       <c r="I6" t="n">
-        <v>106234.0163505688</v>
+        <v>101772.1536220325</v>
       </c>
       <c r="J6" t="n">
-        <v>81283.38276131985</v>
+        <v>76821.52003278355</v>
       </c>
       <c r="K6" t="n">
-        <v>257706.6019539126</v>
+        <v>253244.7392253763</v>
       </c>
       <c r="L6" t="n">
-        <v>257706.6019539128</v>
+        <v>253244.7392253764</v>
       </c>
       <c r="M6" t="n">
-        <v>257706.6019539126</v>
+        <v>253244.7392253763</v>
       </c>
       <c r="N6" t="n">
-        <v>257706.6019539126</v>
+        <v>253244.7392253763</v>
       </c>
       <c r="O6" t="n">
-        <v>257706.6019539128</v>
+        <v>253244.7392253763</v>
       </c>
       <c r="P6" t="n">
-        <v>257706.6019539128</v>
+        <v>253244.7392253763</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26770,13 +26770,13 @@
         <v>520.4186562086462</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="P3" t="n">
         <v>520.4186562086461</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.028707453919</v>
       </c>
       <c r="J4" t="n">
         <v>840.028707453919</v>
       </c>
       <c r="K4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="L4" t="n">
         <v>840.028707453919</v>
       </c>
       <c r="M4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="N4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="O4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539189</v>
+        <v>840.0287074539187</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993635</v>
+        <v>165.7414346993634</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341289</v>
       </c>
       <c r="H35" t="n">
-        <v>21.42608065486149</v>
+        <v>21.42608065486148</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J35" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322154</v>
       </c>
       <c r="K35" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379922</v>
       </c>
       <c r="L35" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M35" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N35" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O35" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538674</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020043</v>
       </c>
       <c r="Q35" t="n">
         <v>225.9270760227193</v>
@@ -33684,10 +33684,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U35" t="n">
         <v>0.1673708241073031</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.119391071845013</v>
+        <v>1.119391071845012</v>
       </c>
       <c r="H36" t="n">
         <v>10.81096114123999</v>
@@ -33736,7 +33736,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J36" t="n">
-        <v>105.7579082395326</v>
+        <v>105.7579082395325</v>
       </c>
       <c r="K36" t="n">
         <v>180.7571100531484</v>
@@ -33745,7 +33745,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M36" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N36" t="n">
         <v>291.1349612690237</v>
@@ -33760,16 +33760,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S36" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129675</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I37" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K37" t="n">
         <v>109.0319742024016</v>
@@ -33824,7 +33824,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M37" t="n">
-        <v>147.1078506394375</v>
+        <v>147.1078506394374</v>
       </c>
       <c r="N37" t="n">
         <v>143.609954753445</v>
@@ -33836,7 +33836,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R37" t="n">
         <v>42.19656841980267</v>
@@ -33845,10 +33845,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341289</v>
       </c>
       <c r="H38" t="n">
-        <v>21.42608065486149</v>
+        <v>21.42608065486148</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J38" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322154</v>
       </c>
       <c r="K38" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379922</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M38" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N38" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O38" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538674</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020043</v>
       </c>
       <c r="Q38" t="n">
         <v>225.9270760227193</v>
@@ -33921,10 +33921,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U38" t="n">
         <v>0.1673708241073031</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.119391071845013</v>
+        <v>1.119391071845012</v>
       </c>
       <c r="H39" t="n">
         <v>10.81096114123999</v>
@@ -33973,7 +33973,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J39" t="n">
-        <v>105.7579082395326</v>
+        <v>105.7579082395325</v>
       </c>
       <c r="K39" t="n">
         <v>180.7571100531484</v>
@@ -33982,7 +33982,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M39" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N39" t="n">
         <v>291.1349612690237</v>
@@ -33997,16 +33997,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S39" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129675</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I40" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K40" t="n">
         <v>109.0319742024016</v>
@@ -34061,7 +34061,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M40" t="n">
-        <v>147.1078506394375</v>
+        <v>147.1078506394374</v>
       </c>
       <c r="N40" t="n">
         <v>143.609954753445</v>
@@ -34073,7 +34073,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R40" t="n">
         <v>42.19656841980267</v>
@@ -34082,10 +34082,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341289</v>
       </c>
       <c r="H41" t="n">
-        <v>21.42608065486149</v>
+        <v>21.42608065486148</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J41" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322154</v>
       </c>
       <c r="K41" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379922</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M41" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N41" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O41" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538674</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020043</v>
       </c>
       <c r="Q41" t="n">
         <v>225.9270760227193</v>
@@ -34158,10 +34158,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U41" t="n">
         <v>0.1673708241073031</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.119391071845013</v>
+        <v>1.119391071845012</v>
       </c>
       <c r="H42" t="n">
         <v>10.81096114123999</v>
@@ -34210,7 +34210,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J42" t="n">
-        <v>105.7579082395326</v>
+        <v>105.7579082395325</v>
       </c>
       <c r="K42" t="n">
         <v>180.7571100531484</v>
@@ -34219,7 +34219,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
-        <v>283.6281676337122</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N42" t="n">
         <v>291.1349612690237</v>
@@ -34234,16 +34234,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S42" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T42" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129675</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I43" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K43" t="n">
         <v>109.0319742024016</v>
@@ -34298,7 +34298,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M43" t="n">
-        <v>147.1078506394375</v>
+        <v>147.1078506394374</v>
       </c>
       <c r="N43" t="n">
         <v>143.609954753445</v>
@@ -34310,7 +34310,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R43" t="n">
         <v>42.19656841980267</v>
@@ -34319,10 +34319,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36448,16 +36448,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N24" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O24" t="n">
-        <v>123.7353672852766</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.2177725234627</v>
+        <v>163.6978275902865</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>307.2916156650364</v>
+        <v>258.0939336328036</v>
       </c>
       <c r="L27" t="n">
         <v>475.3362068029155</v>
@@ -36685,16 +36685,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O27" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P27" t="n">
-        <v>79.78019120842487</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L30" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N30" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620062</v>
@@ -36931,7 +36931,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.907514313001514</v>
+        <v>163.6978275902865</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>42.91567107878939</v>
+        <v>258.0939336328036</v>
       </c>
       <c r="L33" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M33" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620062</v>
@@ -37168,7 +37168,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K35" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641764</v>
       </c>
       <c r="L35" t="n">
-        <v>512.0494411468791</v>
+        <v>512.049441146879</v>
       </c>
       <c r="M35" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N35" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O35" t="n">
-        <v>503.2032315949261</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182174</v>
       </c>
       <c r="Q35" t="n">
         <v>215.9363768081745</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328038</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
@@ -37396,16 +37396,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>639.0463311029125</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P36" t="n">
-        <v>79.78019120842487</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445161</v>
@@ -37545,22 +37545,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K38" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641764</v>
       </c>
       <c r="L38" t="n">
-        <v>512.0494411468791</v>
+        <v>512.049441146879</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N38" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O38" t="n">
-        <v>503.2032315949261</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182174</v>
       </c>
       <c r="Q38" t="n">
         <v>215.9363768081745</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328038</v>
       </c>
       <c r="L39" t="n">
         <v>475.3362068029155</v>
@@ -37633,16 +37633,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5083941356748</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P39" t="n">
-        <v>79.78019120842487</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.907514313001514</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445161</v>
@@ -37782,22 +37782,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641764</v>
       </c>
       <c r="L41" t="n">
-        <v>512.0494411468791</v>
+        <v>512.049441146879</v>
       </c>
       <c r="M41" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N41" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O41" t="n">
-        <v>503.2032315949261</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182174</v>
       </c>
       <c r="Q41" t="n">
         <v>215.9363768081745</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>42.91567107878939</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029155</v>
@@ -37870,16 +37870,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N42" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O42" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001514</v>
+        <v>163.6978275902865</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445161</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>42.91567107878936</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L45" t="n">
         <v>475.3362068029155</v>
@@ -38107,16 +38107,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620061</v>
+        <v>468.310712103442</v>
       </c>
       <c r="P45" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
